--- a/Code/Results/Cases/Case_3_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.00831602332392</v>
+        <v>9.038004860040518</v>
       </c>
       <c r="C2">
-        <v>7.595289201419283</v>
+        <v>4.710672694227462</v>
       </c>
       <c r="D2">
-        <v>10.51710483835575</v>
+        <v>11.57035918323165</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.66320124042342</v>
+        <v>29.40894198588861</v>
       </c>
       <c r="G2">
-        <v>19.64511489572133</v>
+        <v>27.26084037561257</v>
       </c>
       <c r="H2">
-        <v>8.293118541832412</v>
+        <v>13.99981090534322</v>
       </c>
       <c r="I2">
-        <v>12.00079151120653</v>
+        <v>19.8349590857142</v>
       </c>
       <c r="J2">
-        <v>8.303767224014482</v>
+        <v>11.31380303013707</v>
       </c>
       <c r="K2">
-        <v>11.76535482272884</v>
+        <v>8.917692391236542</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.71427925529385</v>
+        <v>17.83658848248331</v>
       </c>
       <c r="O2">
-        <v>13.19834727308236</v>
+        <v>21.09430479861086</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.19116904208251</v>
+        <v>8.725188728770592</v>
       </c>
       <c r="C3">
-        <v>7.173894663380577</v>
+        <v>4.491379053372159</v>
       </c>
       <c r="D3">
-        <v>9.968065989724206</v>
+        <v>11.46712753918362</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.26783439336215</v>
+        <v>29.43958170921778</v>
       </c>
       <c r="G3">
-        <v>19.38024956252289</v>
+        <v>27.32847748663854</v>
       </c>
       <c r="H3">
-        <v>8.35227368861614</v>
+        <v>14.04275012866949</v>
       </c>
       <c r="I3">
-        <v>12.15947293666161</v>
+        <v>19.91801167397596</v>
       </c>
       <c r="J3">
-        <v>8.026236949709196</v>
+        <v>11.29318466548975</v>
       </c>
       <c r="K3">
-        <v>11.1040875756346</v>
+        <v>8.703783438734435</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.86451055464297</v>
+        <v>17.88507821839384</v>
       </c>
       <c r="O3">
-        <v>13.22065980018323</v>
+        <v>21.16380702032786</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.66026761803997</v>
+        <v>8.52827660573047</v>
       </c>
       <c r="C4">
-        <v>6.901936561750254</v>
+        <v>4.350242072843333</v>
       </c>
       <c r="D4">
-        <v>9.619887008803603</v>
+        <v>11.40570169782628</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.03855233170701</v>
+        <v>29.46539221252046</v>
       </c>
       <c r="G4">
-        <v>19.23839450534132</v>
+        <v>27.37812135511141</v>
       </c>
       <c r="H4">
-        <v>8.393226513041615</v>
+        <v>14.07110157296353</v>
       </c>
       <c r="I4">
-        <v>12.26502087584923</v>
+        <v>19.97242733456552</v>
       </c>
       <c r="J4">
-        <v>7.85596380786065</v>
+        <v>11.28275117605923</v>
       </c>
       <c r="K4">
-        <v>10.67675024010886</v>
+        <v>8.570723280789245</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.95941725619594</v>
+        <v>17.9163726265988</v>
       </c>
       <c r="O4">
-        <v>13.24501069641665</v>
+        <v>21.21056037328835</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.43659235842049</v>
+        <v>8.446937889412943</v>
       </c>
       <c r="C5">
-        <v>6.787833353842047</v>
+        <v>4.291140142259653</v>
       </c>
       <c r="D5">
-        <v>9.475391389762345</v>
+        <v>11.38118778172982</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.94855216108762</v>
+        <v>29.4776681810246</v>
       </c>
       <c r="G5">
-        <v>19.18571718573085</v>
+        <v>27.40038487306369</v>
       </c>
       <c r="H5">
-        <v>8.411043544099591</v>
+        <v>14.08315478630467</v>
       </c>
       <c r="I5">
-        <v>12.31000129022945</v>
+        <v>19.99546255678096</v>
       </c>
       <c r="J5">
-        <v>7.786708582029816</v>
+        <v>11.27906245964248</v>
       </c>
       <c r="K5">
-        <v>10.49730973723593</v>
+        <v>8.516143588001391</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.99876924153143</v>
+        <v>17.929508914834</v>
       </c>
       <c r="O5">
-        <v>13.25751309173883</v>
+        <v>21.230637073155</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.39900899981114</v>
+        <v>8.433369285134566</v>
       </c>
       <c r="C6">
-        <v>6.768690214560162</v>
+        <v>4.281231880591119</v>
       </c>
       <c r="D6">
-        <v>9.45124604059051</v>
+        <v>11.37714924013112</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.93381621331787</v>
+        <v>29.47981271207971</v>
       </c>
       <c r="G6">
-        <v>19.17727682594039</v>
+        <v>27.40420429186729</v>
       </c>
       <c r="H6">
-        <v>8.414069175603309</v>
+        <v>14.08518640479001</v>
       </c>
       <c r="I6">
-        <v>12.31758714747429</v>
+        <v>19.99933950885855</v>
       </c>
       <c r="J6">
-        <v>7.775219826266912</v>
+        <v>11.27848404046743</v>
       </c>
       <c r="K6">
-        <v>10.46719604708457</v>
+        <v>8.507061414438063</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.00534468278111</v>
+        <v>17.9317133802563</v>
       </c>
       <c r="O6">
-        <v>13.25974198742989</v>
+        <v>21.23403262217348</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65728071328378</v>
+        <v>8.527183909112019</v>
       </c>
       <c r="C7">
-        <v>6.900410928578142</v>
+        <v>4.349451366876517</v>
       </c>
       <c r="D7">
-        <v>9.617948606182196</v>
+        <v>11.40536896640976</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.03732460161414</v>
+        <v>29.46555065523084</v>
       </c>
       <c r="G7">
-        <v>19.23766344986598</v>
+        <v>27.37841338623118</v>
       </c>
       <c r="H7">
-        <v>8.393462277414605</v>
+        <v>14.07126210296477</v>
       </c>
       <c r="I7">
-        <v>12.26561961769145</v>
+        <v>19.97273451168591</v>
       </c>
       <c r="J7">
-        <v>7.855029135539112</v>
+        <v>11.28269914521813</v>
       </c>
       <c r="K7">
-        <v>10.67435159397936</v>
+        <v>8.569988541227994</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.95994522165418</v>
+        <v>17.91654823285951</v>
       </c>
       <c r="O7">
-        <v>13.24516899581357</v>
+        <v>21.21082698896133</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.73261885433246</v>
+        <v>8.931220516291786</v>
       </c>
       <c r="C8">
-        <v>7.452760214271614</v>
+        <v>4.636431612045912</v>
       </c>
       <c r="D8">
-        <v>10.33018761847157</v>
+        <v>11.53437368237424</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.52411301743645</v>
+        <v>29.41805345016414</v>
       </c>
       <c r="G8">
-        <v>19.54942793077036</v>
+        <v>27.28247338805135</v>
       </c>
       <c r="H8">
-        <v>8.31253175718483</v>
+        <v>14.01420416974938</v>
       </c>
       <c r="I8">
-        <v>12.05377509525526</v>
+        <v>19.8628856708916</v>
       </c>
       <c r="J8">
-        <v>8.208105092698258</v>
+        <v>11.30623380952493</v>
       </c>
       <c r="K8">
-        <v>11.54180670874291</v>
+        <v>8.844337715203816</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.7655301895384</v>
+        <v>17.85299253531311</v>
       </c>
       <c r="O8">
-        <v>13.20377049542637</v>
+        <v>21.11742186363863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.61009084523476</v>
+        <v>9.680323616639797</v>
       </c>
       <c r="C9">
-        <v>8.429573354649696</v>
+        <v>5.146106509384078</v>
       </c>
       <c r="D9">
-        <v>11.63295982912357</v>
+        <v>11.80175006482308</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.58311163701253</v>
+        <v>29.3804778220624</v>
       </c>
       <c r="G9">
-        <v>20.32873908870735</v>
+        <v>27.15901043233234</v>
       </c>
       <c r="H9">
-        <v>8.192277885599443</v>
+        <v>13.91806624541577</v>
       </c>
       <c r="I9">
-        <v>11.70627277148722</v>
+        <v>19.67460982653501</v>
       </c>
       <c r="J9">
-        <v>8.897527844110101</v>
+        <v>11.36989000416492</v>
       </c>
       <c r="K9">
-        <v>13.0718021028231</v>
+        <v>9.365557374635019</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.40511031217322</v>
+        <v>17.74038813460367</v>
       </c>
       <c r="O9">
-        <v>13.21150664625186</v>
+        <v>20.96667396946135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84927598442314</v>
+        <v>10.19869641500464</v>
       </c>
       <c r="C10">
-        <v>9.08115649661393</v>
+        <v>5.486479714497356</v>
       </c>
       <c r="D10">
-        <v>12.52648155335704</v>
+        <v>12.00538786466502</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.42097664528274</v>
+        <v>29.38676212960695</v>
       </c>
       <c r="G10">
-        <v>21.00650931792354</v>
+        <v>27.10808071562344</v>
       </c>
       <c r="H10">
-        <v>8.12983378734368</v>
+        <v>13.8570228174223</v>
       </c>
       <c r="I10">
-        <v>11.49766097534501</v>
+        <v>19.55281742442365</v>
       </c>
       <c r="J10">
-        <v>9.3974799300459</v>
+        <v>11.42708828911151</v>
       </c>
       <c r="K10">
-        <v>14.08995260871883</v>
+        <v>9.734356706638438</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.15257613749198</v>
+        <v>17.66492771799204</v>
       </c>
       <c r="O10">
-        <v>13.2773581872544</v>
+        <v>20.87575839318865</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.38285374451891</v>
+        <v>10.42658381151412</v>
       </c>
       <c r="C11">
-        <v>9.363122304368513</v>
+        <v>5.633660648307116</v>
       </c>
       <c r="D11">
-        <v>12.91825250740127</v>
+        <v>12.09924429487851</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.81423977225528</v>
+        <v>29.39696716164611</v>
       </c>
       <c r="G11">
-        <v>21.33792168959584</v>
+        <v>27.09360707372123</v>
       </c>
       <c r="H11">
-        <v>8.10762185661204</v>
+        <v>13.8313319072193</v>
       </c>
       <c r="I11">
-        <v>11.41418429751867</v>
+        <v>19.50099963626508</v>
       </c>
       <c r="J11">
-        <v>9.622669494589683</v>
+        <v>11.45531345832883</v>
       </c>
       <c r="K11">
-        <v>14.53000396208956</v>
+        <v>9.898322286582616</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.04026616806938</v>
+        <v>17.63216421004669</v>
       </c>
       <c r="O11">
-        <v>13.32162519004348</v>
+        <v>20.83872158477329</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.5805998880557</v>
+        <v>10.51167001011511</v>
       </c>
       <c r="C12">
-        <v>9.467817006734155</v>
+        <v>5.688276503432147</v>
       </c>
       <c r="D12">
-        <v>13.06444130270552</v>
+        <v>12.13493141259931</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.96482448611759</v>
+        <v>29.40188533301499</v>
       </c>
       <c r="G12">
-        <v>21.46673645310172</v>
+        <v>27.08937983583055</v>
       </c>
       <c r="H12">
-        <v>8.100151326744417</v>
+        <v>13.82190207063473</v>
       </c>
       <c r="I12">
-        <v>11.38433351640348</v>
+        <v>19.48189333056801</v>
       </c>
       <c r="J12">
-        <v>9.707564234569555</v>
+        <v>11.46631289102999</v>
       </c>
       <c r="K12">
-        <v>14.69331589117774</v>
+        <v>9.95980930056426</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.99810021626083</v>
+        <v>17.6199814307864</v>
       </c>
       <c r="O12">
-        <v>13.34054472008569</v>
+        <v>20.82531928037377</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.53820288954385</v>
+        <v>10.49340001255241</v>
       </c>
       <c r="C13">
-        <v>9.445361611966169</v>
+        <v>5.676563982826444</v>
       </c>
       <c r="D13">
-        <v>13.03305395968496</v>
+        <v>12.12723954625023</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.93232054274731</v>
+        <v>29.40077930235692</v>
       </c>
       <c r="G13">
-        <v>21.43884658969131</v>
+        <v>27.09023444886882</v>
       </c>
       <c r="H13">
-        <v>8.10171758585567</v>
+        <v>13.8239196685584</v>
       </c>
       <c r="I13">
-        <v>11.39068217622517</v>
+        <v>19.48598526286844</v>
       </c>
       <c r="J13">
-        <v>9.689298331685169</v>
+        <v>11.46393022612007</v>
       </c>
       <c r="K13">
-        <v>14.65829163901733</v>
+        <v>9.946594647566673</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.00716533870126</v>
+        <v>17.62259525856867</v>
       </c>
       <c r="O13">
-        <v>13.33637260496444</v>
+        <v>20.82817798939439</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.39920862524182</v>
+        <v>10.43360852383859</v>
       </c>
       <c r="C14">
-        <v>9.371777277326146</v>
+        <v>5.638176428988966</v>
       </c>
       <c r="D14">
-        <v>12.93032321332784</v>
+        <v>12.10217754557575</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.82659554049181</v>
+        <v>29.39735068209345</v>
       </c>
       <c r="G14">
-        <v>21.34845296229322</v>
+        <v>27.09323415612172</v>
       </c>
       <c r="H14">
-        <v>8.10698810611931</v>
+        <v>13.83055012179674</v>
       </c>
       <c r="I14">
-        <v>11.41169247870289</v>
+        <v>19.49941740656489</v>
       </c>
       <c r="J14">
-        <v>9.629661739883225</v>
+        <v>11.45621218748861</v>
       </c>
       <c r="K14">
-        <v>14.54350638128411</v>
+        <v>9.90339325554336</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.03678990018151</v>
+        <v>17.63115743983942</v>
       </c>
       <c r="O14">
-        <v>13.3231379348077</v>
+        <v>20.83760648112972</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31351037608716</v>
+        <v>10.39682501284405</v>
       </c>
       <c r="C15">
-        <v>9.326433922871349</v>
+        <v>5.614516840937557</v>
       </c>
       <c r="D15">
-        <v>12.86711423270489</v>
+        <v>12.08684444014778</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.76205044507113</v>
+        <v>29.39538768908642</v>
       </c>
       <c r="G15">
-        <v>21.29351578925527</v>
+        <v>27.09523490471616</v>
       </c>
       <c r="H15">
-        <v>8.110340470025797</v>
+        <v>13.83465037044135</v>
       </c>
       <c r="I15">
-        <v>11.42479473666658</v>
+        <v>19.50771218521674</v>
       </c>
       <c r="J15">
-        <v>9.593081621172971</v>
+        <v>11.45152500607808</v>
       </c>
       <c r="K15">
-        <v>14.47276399458266</v>
+        <v>9.876851008183166</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.05498295112064</v>
+        <v>17.63643117680582</v>
       </c>
       <c r="O15">
-        <v>13.31531504879333</v>
+        <v>20.84346284166959</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.81380111227882</v>
+        <v>10.18363778084792</v>
       </c>
       <c r="C16">
-        <v>9.06243838731473</v>
+        <v>5.476705462164446</v>
       </c>
       <c r="D16">
-        <v>12.50057777504135</v>
+        <v>11.99927614080916</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.39551305375385</v>
+        <v>29.38624282684169</v>
       </c>
       <c r="G16">
-        <v>20.985315280725</v>
+        <v>27.10920186642424</v>
       </c>
       <c r="H16">
-        <v>8.131414251877612</v>
+        <v>13.85874358865237</v>
       </c>
       <c r="I16">
-        <v>11.50335606842665</v>
+        <v>19.55627602489837</v>
       </c>
       <c r="J16">
-        <v>9.382713042598393</v>
+        <v>11.42528758612231</v>
       </c>
       <c r="K16">
-        <v>14.06072878415743</v>
+        <v>9.723559724943986</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.15996703129021</v>
+        <v>17.66710028743574</v>
       </c>
       <c r="O16">
-        <v>13.27476170421431</v>
+        <v>20.87826590555955</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.49954434177015</v>
+        <v>10.05077209060246</v>
       </c>
       <c r="C17">
-        <v>8.896782906148665</v>
+        <v>5.390188157642988</v>
       </c>
       <c r="D17">
-        <v>12.27191258323101</v>
+        <v>11.94584725620297</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.1737010189061</v>
+        <v>29.38251270457535</v>
       </c>
       <c r="G17">
-        <v>20.80215910163336</v>
+        <v>27.119999706285</v>
       </c>
       <c r="H17">
-        <v>8.145963669027591</v>
+        <v>13.87405618702779</v>
       </c>
       <c r="I17">
-        <v>11.55455731665657</v>
+        <v>19.58698706249385</v>
       </c>
       <c r="J17">
-        <v>9.25304088043095</v>
+        <v>11.40975252464873</v>
       </c>
       <c r="K17">
-        <v>13.80203519357733</v>
+        <v>9.62850491430536</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.225024973371</v>
+        <v>17.6863147327519</v>
       </c>
       <c r="O17">
-        <v>13.25361996048217</v>
+        <v>20.90072419159549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.31595408410195</v>
+        <v>9.973609142508478</v>
       </c>
       <c r="C18">
-        <v>8.800142654874584</v>
+        <v>5.339705823235476</v>
       </c>
       <c r="D18">
-        <v>12.13900919187535</v>
+        <v>11.91523305014402</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.04726539982284</v>
+        <v>29.38105891517268</v>
       </c>
       <c r="G18">
-        <v>20.69898709030619</v>
+        <v>27.12702856753444</v>
       </c>
       <c r="H18">
-        <v>8.154912017897823</v>
+        <v>13.88305918841327</v>
       </c>
       <c r="I18">
-        <v>11.58507445265629</v>
+        <v>19.60498876923659</v>
       </c>
       <c r="J18">
-        <v>9.17824876483043</v>
+        <v>11.4010251328426</v>
       </c>
       <c r="K18">
-        <v>13.65106589561807</v>
+        <v>9.573477013365094</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.26268673918366</v>
+        <v>17.69751361547346</v>
       </c>
       <c r="O18">
-        <v>13.24280104444059</v>
+        <v>20.91404825302489</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.25330543154898</v>
+        <v>9.947357926828323</v>
       </c>
       <c r="C19">
-        <v>8.767188584798198</v>
+        <v>5.322490319762977</v>
       </c>
       <c r="D19">
-        <v>12.09377503702228</v>
+        <v>11.90488855249025</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.00465549629073</v>
+        <v>29.38068554964048</v>
       </c>
       <c r="G19">
-        <v>20.66442824903573</v>
+        <v>27.12954883347365</v>
       </c>
       <c r="H19">
-        <v>8.158039888457463</v>
+        <v>13.88614104657901</v>
       </c>
       <c r="I19">
-        <v>11.59558693509317</v>
+        <v>19.61114180107683</v>
       </c>
       <c r="J19">
-        <v>9.152891599176458</v>
+        <v>11.39810608072862</v>
       </c>
       <c r="K19">
-        <v>13.59957682516083</v>
+        <v>9.554786349677487</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.27548014612115</v>
+        <v>17.70133067904442</v>
       </c>
       <c r="O19">
-        <v>13.23936525549266</v>
+        <v>20.91862935133847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53329107132377</v>
+        <v>10.064993214793</v>
       </c>
       <c r="C20">
-        <v>8.914557964973493</v>
+        <v>5.399472712727194</v>
       </c>
       <c r="D20">
-        <v>12.2963977682353</v>
+        <v>11.9515229925237</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.19719537726896</v>
+        <v>29.38283821269431</v>
       </c>
       <c r="G20">
-        <v>20.82143132491452</v>
+        <v>27.11876554687174</v>
       </c>
       <c r="H20">
-        <v>8.14435448547445</v>
+        <v>13.87240589144297</v>
       </c>
       <c r="I20">
-        <v>11.54899554598471</v>
+        <v>19.58368288509925</v>
       </c>
       <c r="J20">
-        <v>9.266866688692396</v>
+        <v>11.41138477673519</v>
       </c>
       <c r="K20">
-        <v>13.82979877468241</v>
+        <v>9.638660813068798</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.21807442670723</v>
+        <v>17.68425408926576</v>
       </c>
       <c r="O20">
-        <v>13.25573099662069</v>
+        <v>20.89829137199625</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.44015131577211</v>
+        <v>10.45120408642595</v>
       </c>
       <c r="C21">
-        <v>9.393447217685273</v>
+        <v>5.64948225816953</v>
       </c>
       <c r="D21">
-        <v>12.96055686394439</v>
+        <v>12.10953514510156</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.85760496381315</v>
+        <v>29.39832917790197</v>
       </c>
       <c r="G21">
-        <v>21.37491385324534</v>
+        <v>27.09231902455194</v>
       </c>
       <c r="H21">
-        <v>8.105414089234806</v>
+        <v>13.82859448939132</v>
       </c>
       <c r="I21">
-        <v>11.405472497998</v>
+        <v>19.49545805482082</v>
       </c>
       <c r="J21">
-        <v>9.64718916669327</v>
+        <v>11.45847076689022</v>
       </c>
       <c r="K21">
-        <v>14.57731184730724</v>
+        <v>9.91609934837545</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.02807863229141</v>
+        <v>17.62863644549525</v>
       </c>
       <c r="O21">
-        <v>13.32696597673106</v>
+        <v>20.83482019332972</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.00773956842282</v>
+        <v>10.6965367448226</v>
       </c>
       <c r="C22">
-        <v>9.69430952636514</v>
+        <v>5.806353433678748</v>
       </c>
       <c r="D22">
-        <v>13.38198196349077</v>
+        <v>12.21364084261683</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.29888968362593</v>
+        <v>29.41459362710742</v>
       </c>
       <c r="G22">
-        <v>21.75596636626739</v>
+        <v>27.08234261404838</v>
       </c>
       <c r="H22">
-        <v>8.085471771210491</v>
+        <v>13.80170254099406</v>
       </c>
       <c r="I22">
-        <v>11.32199127121089</v>
+        <v>19.44080562508609</v>
       </c>
       <c r="J22">
-        <v>9.893519010312474</v>
+        <v>11.49105489011301</v>
       </c>
       <c r="K22">
-        <v>15.04647196613208</v>
+        <v>10.09388266096328</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.90602101060442</v>
+        <v>17.59359266305292</v>
       </c>
       <c r="O22">
-        <v>13.38613605266204</v>
+        <v>20.79696844480422</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.70709429120796</v>
+        <v>10.56626686019709</v>
       </c>
       <c r="C23">
-        <v>9.534842219636761</v>
+        <v>5.723230224191737</v>
       </c>
       <c r="D23">
-        <v>13.15822972790988</v>
+        <v>12.15801104329625</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.06250766506076</v>
+        <v>29.40535225087404</v>
       </c>
       <c r="G23">
-        <v>21.55082783183721</v>
+        <v>27.08699767354739</v>
       </c>
       <c r="H23">
-        <v>8.095594379347318</v>
+        <v>13.81589596905039</v>
       </c>
       <c r="I23">
-        <v>11.36556149856808</v>
+        <v>19.46969936009344</v>
       </c>
       <c r="J23">
-        <v>9.762268953714054</v>
+        <v>11.47350052476083</v>
       </c>
       <c r="K23">
-        <v>14.79784507883209</v>
+        <v>9.999337598863121</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.97097378232364</v>
+        <v>17.61217699898174</v>
       </c>
       <c r="O23">
-        <v>13.35336983396202</v>
+        <v>20.81683802844968</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.51804327144265</v>
+        <v>10.05856625832246</v>
       </c>
       <c r="C24">
-        <v>8.906526229733926</v>
+        <v>5.395277476404478</v>
       </c>
       <c r="D24">
-        <v>12.28533249944744</v>
+        <v>11.94895666974322</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.1865701859224</v>
+        <v>29.38268889878126</v>
       </c>
       <c r="G24">
-        <v>20.8127117276693</v>
+        <v>27.11932095313173</v>
       </c>
       <c r="H24">
-        <v>8.14508018303345</v>
+        <v>13.87315136837463</v>
       </c>
       <c r="I24">
-        <v>11.55150666467617</v>
+        <v>19.58517562743833</v>
       </c>
       <c r="J24">
-        <v>9.260616789659345</v>
+        <v>11.41064619992953</v>
       </c>
       <c r="K24">
-        <v>13.81725384553678</v>
+        <v>9.634070509347579</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.22121596139019</v>
+        <v>17.68518523189407</v>
       </c>
       <c r="O24">
-        <v>13.25477244411989</v>
+        <v>20.89938996494617</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.12688399090985</v>
+        <v>9.482922039260245</v>
       </c>
       <c r="C25">
-        <v>8.176865225281048</v>
+        <v>5.014107913848855</v>
       </c>
       <c r="D25">
-        <v>11.29132775743992</v>
+        <v>11.72803727228428</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.28582076861327</v>
+        <v>29.38468936844314</v>
       </c>
       <c r="G25">
-        <v>20.0995689672372</v>
+        <v>27.18544707354917</v>
       </c>
       <c r="H25">
-        <v>8.220446122493691</v>
+        <v>13.94238915897161</v>
       </c>
       <c r="I25">
-        <v>11.79248986111281</v>
+        <v>19.72263932681463</v>
       </c>
       <c r="J25">
-        <v>8.711862507226471</v>
+        <v>11.35081842408121</v>
       </c>
       <c r="K25">
-        <v>12.6764269166285</v>
+        <v>9.226770622371271</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.50042878274911</v>
+        <v>17.76956944014304</v>
       </c>
       <c r="O25">
-        <v>13.19927432584363</v>
+        <v>21.00397659358546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.038004860040518</v>
+        <v>13.00831602332394</v>
       </c>
       <c r="C2">
-        <v>4.710672694227462</v>
+        <v>7.59528920141949</v>
       </c>
       <c r="D2">
-        <v>11.57035918323165</v>
+        <v>10.51710483835576</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.40894198588861</v>
+        <v>20.66320124042322</v>
       </c>
       <c r="G2">
-        <v>27.26084037561257</v>
+        <v>19.64511489572109</v>
       </c>
       <c r="H2">
-        <v>13.99981090534322</v>
+        <v>8.293118541832236</v>
       </c>
       <c r="I2">
-        <v>19.8349590857142</v>
+        <v>12.00079151120641</v>
       </c>
       <c r="J2">
-        <v>11.31380303013707</v>
+        <v>8.303767224014468</v>
       </c>
       <c r="K2">
-        <v>8.917692391236542</v>
+        <v>11.76535482272889</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.83658848248331</v>
+        <v>11.71427925529374</v>
       </c>
       <c r="O2">
-        <v>21.09430479861086</v>
+        <v>13.19834727308216</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.725188728770592</v>
+        <v>12.19116904208258</v>
       </c>
       <c r="C3">
-        <v>4.491379053372159</v>
+        <v>7.173894663380379</v>
       </c>
       <c r="D3">
-        <v>11.46712753918362</v>
+        <v>9.968065989724199</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.43958170921778</v>
+        <v>20.26783439336211</v>
       </c>
       <c r="G3">
-        <v>27.32847748663854</v>
+        <v>19.38024956252282</v>
       </c>
       <c r="H3">
-        <v>14.04275012866949</v>
+        <v>8.35227368861614</v>
       </c>
       <c r="I3">
-        <v>19.91801167397596</v>
+        <v>12.15947293666153</v>
       </c>
       <c r="J3">
-        <v>11.29318466548975</v>
+        <v>8.026236949709229</v>
       </c>
       <c r="K3">
-        <v>8.703783438734435</v>
+        <v>11.10408757563463</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.88507821839384</v>
+        <v>11.86451055464297</v>
       </c>
       <c r="O3">
-        <v>21.16380702032786</v>
+        <v>13.22065980018321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.52827660573047</v>
+        <v>11.66026761803996</v>
       </c>
       <c r="C4">
-        <v>4.350242072843333</v>
+        <v>6.901936561750271</v>
       </c>
       <c r="D4">
-        <v>11.40570169782628</v>
+        <v>9.619887008803589</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.46539221252046</v>
+        <v>20.03855233170698</v>
       </c>
       <c r="G4">
-        <v>27.37812135511141</v>
+        <v>19.23839450534125</v>
       </c>
       <c r="H4">
-        <v>14.07110157296353</v>
+        <v>8.393226513041624</v>
       </c>
       <c r="I4">
-        <v>19.97242733456552</v>
+        <v>12.26502087584924</v>
       </c>
       <c r="J4">
-        <v>11.28275117605923</v>
+        <v>7.855963807860672</v>
       </c>
       <c r="K4">
-        <v>8.570723280789245</v>
+        <v>10.67675024010886</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.9163726265988</v>
+        <v>11.95941725619591</v>
       </c>
       <c r="O4">
-        <v>21.21056037328835</v>
+        <v>13.2450106964166</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.446937889412943</v>
+        <v>11.43659235842052</v>
       </c>
       <c r="C5">
-        <v>4.291140142259653</v>
+        <v>6.78783335384202</v>
       </c>
       <c r="D5">
-        <v>11.38118778172982</v>
+        <v>9.475391389762382</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.4776681810246</v>
+        <v>19.9485521610877</v>
       </c>
       <c r="G5">
-        <v>27.40038487306369</v>
+        <v>19.18571718573092</v>
       </c>
       <c r="H5">
-        <v>14.08315478630467</v>
+        <v>8.411043544099599</v>
       </c>
       <c r="I5">
-        <v>19.99546255678096</v>
+        <v>12.31000129022947</v>
       </c>
       <c r="J5">
-        <v>11.27906245964248</v>
+        <v>7.786708582029782</v>
       </c>
       <c r="K5">
-        <v>8.516143588001391</v>
+        <v>10.49730973723593</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.929508914834</v>
+        <v>11.99876924153143</v>
       </c>
       <c r="O5">
-        <v>21.230637073155</v>
+        <v>13.25751309173885</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.433369285134566</v>
+        <v>11.39900899981117</v>
       </c>
       <c r="C6">
-        <v>4.281231880591119</v>
+        <v>6.768690214560061</v>
       </c>
       <c r="D6">
-        <v>11.37714924013112</v>
+        <v>9.451246040590465</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.47981271207971</v>
+        <v>19.93381621331784</v>
       </c>
       <c r="G6">
-        <v>27.40420429186729</v>
+        <v>19.17727682594045</v>
       </c>
       <c r="H6">
-        <v>14.08518640479001</v>
+        <v>8.414069175603307</v>
       </c>
       <c r="I6">
-        <v>19.99933950885855</v>
+        <v>12.31758714747429</v>
       </c>
       <c r="J6">
-        <v>11.27848404046743</v>
+        <v>7.775219826266912</v>
       </c>
       <c r="K6">
-        <v>8.507061414438063</v>
+        <v>10.46719604708458</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.9317133802563</v>
+        <v>12.00534468278114</v>
       </c>
       <c r="O6">
-        <v>21.23403262217348</v>
+        <v>13.25974198742994</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.527183909112019</v>
+        <v>11.65728071328381</v>
       </c>
       <c r="C7">
-        <v>4.349451366876517</v>
+        <v>6.9004109285783</v>
       </c>
       <c r="D7">
-        <v>11.40536896640976</v>
+        <v>9.617948606182122</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.46555065523084</v>
+        <v>20.03732460161386</v>
       </c>
       <c r="G7">
-        <v>27.37841338623118</v>
+        <v>19.23766344986571</v>
       </c>
       <c r="H7">
-        <v>14.07126210296477</v>
+        <v>8.393462277414484</v>
       </c>
       <c r="I7">
-        <v>19.97273451168591</v>
+        <v>12.26561961769136</v>
       </c>
       <c r="J7">
-        <v>11.28269914521813</v>
+        <v>7.855029135539107</v>
       </c>
       <c r="K7">
-        <v>8.569988541227994</v>
+        <v>10.6743515939794</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.91654823285951</v>
+        <v>11.95994522165412</v>
       </c>
       <c r="O7">
-        <v>21.21082698896133</v>
+        <v>13.24516899581337</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.931220516291786</v>
+        <v>12.73261885433252</v>
       </c>
       <c r="C8">
-        <v>4.636431612045912</v>
+        <v>7.452760214271614</v>
       </c>
       <c r="D8">
-        <v>11.53437368237424</v>
+        <v>10.33018761847159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.41805345016414</v>
+        <v>20.52411301743645</v>
       </c>
       <c r="G8">
-        <v>27.28247338805135</v>
+        <v>19.54942793077031</v>
       </c>
       <c r="H8">
-        <v>14.01420416974938</v>
+        <v>8.312531757184836</v>
       </c>
       <c r="I8">
-        <v>19.8628856708916</v>
+        <v>12.05377509525521</v>
       </c>
       <c r="J8">
-        <v>11.30623380952493</v>
+        <v>8.208105092698263</v>
       </c>
       <c r="K8">
-        <v>8.844337715203816</v>
+        <v>11.54180670874293</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.85299253531311</v>
+        <v>11.7655301895384</v>
       </c>
       <c r="O8">
-        <v>21.11742186363863</v>
+        <v>13.20377049542632</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.680323616639797</v>
+        <v>14.61009084523476</v>
       </c>
       <c r="C9">
-        <v>5.146106509384078</v>
+        <v>8.429573354649762</v>
       </c>
       <c r="D9">
-        <v>11.80175006482308</v>
+        <v>11.63295982912356</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.3804778220624</v>
+        <v>21.58311163701251</v>
       </c>
       <c r="G9">
-        <v>27.15901043233234</v>
+        <v>20.32873908870731</v>
       </c>
       <c r="H9">
-        <v>13.91806624541577</v>
+        <v>8.192277885599443</v>
       </c>
       <c r="I9">
-        <v>19.67460982653501</v>
+        <v>11.70627277148723</v>
       </c>
       <c r="J9">
-        <v>11.36989000416492</v>
+        <v>8.897527844110119</v>
       </c>
       <c r="K9">
-        <v>9.365557374635019</v>
+        <v>13.07180210282315</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.74038813460367</v>
+        <v>11.40511031217322</v>
       </c>
       <c r="O9">
-        <v>20.96667396946135</v>
+        <v>13.21150664625183</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.19869641500464</v>
+        <v>15.84927598442319</v>
       </c>
       <c r="C10">
-        <v>5.486479714497356</v>
+        <v>9.081156496613902</v>
       </c>
       <c r="D10">
-        <v>12.00538786466502</v>
+        <v>12.52648155335706</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.38676212960695</v>
+        <v>22.42097664528273</v>
       </c>
       <c r="G10">
-        <v>27.10808071562344</v>
+        <v>21.00650931792347</v>
       </c>
       <c r="H10">
-        <v>13.8570228174223</v>
+        <v>8.129833787343582</v>
       </c>
       <c r="I10">
-        <v>19.55281742442365</v>
+        <v>11.49766097534494</v>
       </c>
       <c r="J10">
-        <v>11.42708828911151</v>
+        <v>9.397479930045918</v>
       </c>
       <c r="K10">
-        <v>9.734356706638438</v>
+        <v>14.08995260871885</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.66492771799204</v>
+        <v>11.15257613749191</v>
       </c>
       <c r="O10">
-        <v>20.87575839318865</v>
+        <v>13.27735818725433</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.42658381151412</v>
+        <v>16.38285374451899</v>
       </c>
       <c r="C11">
-        <v>5.633660648307116</v>
+        <v>9.363122304368405</v>
       </c>
       <c r="D11">
-        <v>12.09924429487851</v>
+        <v>12.91825250740129</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.39696716164611</v>
+        <v>22.81423977225529</v>
       </c>
       <c r="G11">
-        <v>27.09360707372123</v>
+        <v>21.33792168959579</v>
       </c>
       <c r="H11">
-        <v>13.8313319072193</v>
+        <v>8.107621856612084</v>
       </c>
       <c r="I11">
-        <v>19.50099963626508</v>
+        <v>11.41418429751864</v>
       </c>
       <c r="J11">
-        <v>11.45531345832883</v>
+        <v>9.62266949458968</v>
       </c>
       <c r="K11">
-        <v>9.898322286582616</v>
+        <v>14.53000396208958</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.63216421004669</v>
+        <v>11.04026616806942</v>
       </c>
       <c r="O11">
-        <v>20.83872158477329</v>
+        <v>13.32162519004347</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.51167001011511</v>
+        <v>16.58059988805571</v>
       </c>
       <c r="C12">
-        <v>5.688276503432147</v>
+        <v>9.467817006734233</v>
       </c>
       <c r="D12">
-        <v>12.13493141259931</v>
+        <v>13.06444130270548</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.40188533301499</v>
+        <v>22.96482448611751</v>
       </c>
       <c r="G12">
-        <v>27.08937983583055</v>
+        <v>21.46673645310169</v>
       </c>
       <c r="H12">
-        <v>13.82190207063473</v>
+        <v>8.100151326744417</v>
       </c>
       <c r="I12">
-        <v>19.48189333056801</v>
+        <v>11.38433351640348</v>
       </c>
       <c r="J12">
-        <v>11.46631289102999</v>
+        <v>9.707564234569551</v>
       </c>
       <c r="K12">
-        <v>9.95980930056426</v>
+        <v>14.69331589117775</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.6199814307864</v>
+        <v>10.99810021626083</v>
       </c>
       <c r="O12">
-        <v>20.82531928037377</v>
+        <v>13.34054472008565</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.49340001255241</v>
+        <v>16.5382028895438</v>
       </c>
       <c r="C13">
-        <v>5.676563982826444</v>
+        <v>9.445361611966124</v>
       </c>
       <c r="D13">
-        <v>12.12723954625023</v>
+        <v>13.03305395968496</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.40077930235692</v>
+        <v>22.93232054274729</v>
       </c>
       <c r="G13">
-        <v>27.09023444886882</v>
+        <v>21.43884658969131</v>
       </c>
       <c r="H13">
-        <v>13.8239196685584</v>
+        <v>8.101717585855628</v>
       </c>
       <c r="I13">
-        <v>19.48598526286844</v>
+        <v>11.39068217622513</v>
       </c>
       <c r="J13">
-        <v>11.46393022612007</v>
+        <v>9.689298331685199</v>
       </c>
       <c r="K13">
-        <v>9.946594647566673</v>
+        <v>14.65829163901727</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.62259525856867</v>
+        <v>11.00716533870112</v>
       </c>
       <c r="O13">
-        <v>20.82817798939439</v>
+        <v>13.33637260496441</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.43360852383859</v>
+        <v>16.39920862524188</v>
       </c>
       <c r="C14">
-        <v>5.638176428988966</v>
+        <v>9.371777277326192</v>
       </c>
       <c r="D14">
-        <v>12.10217754557575</v>
+        <v>12.93032321332786</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.39735068209345</v>
+        <v>22.82659554049183</v>
       </c>
       <c r="G14">
-        <v>27.09323415612172</v>
+        <v>21.34845296229322</v>
       </c>
       <c r="H14">
-        <v>13.83055012179674</v>
+        <v>8.10698810611931</v>
       </c>
       <c r="I14">
-        <v>19.49941740656489</v>
+        <v>11.4116924787029</v>
       </c>
       <c r="J14">
-        <v>11.45621218748861</v>
+        <v>9.629661739883224</v>
       </c>
       <c r="K14">
-        <v>9.90339325554336</v>
+        <v>14.54350638128417</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.63115743983942</v>
+        <v>11.03678990018154</v>
       </c>
       <c r="O14">
-        <v>20.83760648112972</v>
+        <v>13.32313793480768</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.39682501284405</v>
+        <v>16.31351037608727</v>
       </c>
       <c r="C15">
-        <v>5.614516840937557</v>
+        <v>9.326433922871258</v>
       </c>
       <c r="D15">
-        <v>12.08684444014778</v>
+        <v>12.86711423270489</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.39538768908642</v>
+        <v>22.76205044507112</v>
       </c>
       <c r="G15">
-        <v>27.09523490471616</v>
+        <v>21.29351578925531</v>
       </c>
       <c r="H15">
-        <v>13.83465037044135</v>
+        <v>8.110340470025797</v>
       </c>
       <c r="I15">
-        <v>19.50771218521674</v>
+        <v>11.4247947366665</v>
       </c>
       <c r="J15">
-        <v>11.45152500607808</v>
+        <v>9.593081621172963</v>
       </c>
       <c r="K15">
-        <v>9.876851008183166</v>
+        <v>14.47276399458265</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.63643117680582</v>
+        <v>11.0549829511206</v>
       </c>
       <c r="O15">
-        <v>20.84346284166959</v>
+        <v>13.31531504879332</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.18363778084792</v>
+        <v>15.81380111227879</v>
       </c>
       <c r="C16">
-        <v>5.476705462164446</v>
+        <v>9.062438387314838</v>
       </c>
       <c r="D16">
-        <v>11.99927614080916</v>
+        <v>12.50057777504132</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.38624282684169</v>
+        <v>22.39551305375379</v>
       </c>
       <c r="G16">
-        <v>27.10920186642424</v>
+        <v>20.98531528072494</v>
       </c>
       <c r="H16">
-        <v>13.85874358865237</v>
+        <v>8.131414251877612</v>
       </c>
       <c r="I16">
-        <v>19.55627602489837</v>
+        <v>11.50335606842665</v>
       </c>
       <c r="J16">
-        <v>11.42528758612231</v>
+        <v>9.382713042598361</v>
       </c>
       <c r="K16">
-        <v>9.723559724943986</v>
+        <v>14.06072878415743</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.66710028743574</v>
+        <v>11.15996703129017</v>
       </c>
       <c r="O16">
-        <v>20.87826590555955</v>
+        <v>13.27476170421426</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.05077209060246</v>
+        <v>15.49954434177009</v>
       </c>
       <c r="C17">
-        <v>5.390188157642988</v>
+        <v>8.896782906148713</v>
       </c>
       <c r="D17">
-        <v>11.94584725620297</v>
+        <v>12.27191258323101</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.38251270457535</v>
+        <v>22.17370101890612</v>
       </c>
       <c r="G17">
-        <v>27.119999706285</v>
+        <v>20.80215910163341</v>
       </c>
       <c r="H17">
-        <v>13.87405618702779</v>
+        <v>8.145963669027591</v>
       </c>
       <c r="I17">
-        <v>19.58698706249385</v>
+        <v>11.55455731665665</v>
       </c>
       <c r="J17">
-        <v>11.40975252464873</v>
+        <v>9.253040880430987</v>
       </c>
       <c r="K17">
-        <v>9.62850491430536</v>
+        <v>13.80203519357731</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.6863147327519</v>
+        <v>11.225024973371</v>
       </c>
       <c r="O17">
-        <v>20.90072419159549</v>
+        <v>13.25361996048218</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.973609142508478</v>
+        <v>15.31595408410194</v>
       </c>
       <c r="C18">
-        <v>5.339705823235476</v>
+        <v>8.800142654874634</v>
       </c>
       <c r="D18">
-        <v>11.91523305014402</v>
+        <v>12.13900919187539</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.38105891517268</v>
+        <v>22.04726539982287</v>
       </c>
       <c r="G18">
-        <v>27.12702856753444</v>
+        <v>20.69898709030631</v>
       </c>
       <c r="H18">
-        <v>13.88305918841327</v>
+        <v>8.154912017897718</v>
       </c>
       <c r="I18">
-        <v>19.60498876923659</v>
+        <v>11.58507445265636</v>
       </c>
       <c r="J18">
-        <v>11.4010251328426</v>
+        <v>9.178248764830439</v>
       </c>
       <c r="K18">
-        <v>9.573477013365094</v>
+        <v>13.65106589561808</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.69751361547346</v>
+        <v>11.26268673918365</v>
       </c>
       <c r="O18">
-        <v>20.91404825302489</v>
+        <v>13.2428010444406</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.947357926828323</v>
+        <v>15.25330543154906</v>
       </c>
       <c r="C19">
-        <v>5.322490319762977</v>
+        <v>8.767188584798026</v>
       </c>
       <c r="D19">
-        <v>11.90488855249025</v>
+        <v>12.09377503702229</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.38068554964048</v>
+        <v>22.00465549629056</v>
       </c>
       <c r="G19">
-        <v>27.12954883347365</v>
+        <v>20.66442824903561</v>
       </c>
       <c r="H19">
-        <v>13.88614104657901</v>
+        <v>8.158039888457296</v>
       </c>
       <c r="I19">
-        <v>19.61114180107683</v>
+        <v>11.59558693509301</v>
       </c>
       <c r="J19">
-        <v>11.39810608072862</v>
+        <v>9.152891599176471</v>
       </c>
       <c r="K19">
-        <v>9.554786349677487</v>
+        <v>13.59957682516086</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.70133067904442</v>
+        <v>11.27548014612108</v>
       </c>
       <c r="O19">
-        <v>20.91862935133847</v>
+        <v>13.23936525549254</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.064993214793</v>
+        <v>15.53329107132388</v>
       </c>
       <c r="C20">
-        <v>5.399472712727194</v>
+        <v>8.914557964973525</v>
       </c>
       <c r="D20">
-        <v>11.9515229925237</v>
+        <v>12.29639776823532</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.38283821269431</v>
+        <v>22.19719537726887</v>
       </c>
       <c r="G20">
-        <v>27.11876554687174</v>
+        <v>20.82143132491429</v>
       </c>
       <c r="H20">
-        <v>13.87240589144297</v>
+        <v>8.144354485474395</v>
       </c>
       <c r="I20">
-        <v>19.58368288509925</v>
+        <v>11.54899554598455</v>
       </c>
       <c r="J20">
-        <v>11.41138477673519</v>
+        <v>9.266866688692367</v>
       </c>
       <c r="K20">
-        <v>9.638660813068798</v>
+        <v>13.82979877468244</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.68425408926576</v>
+        <v>11.21807442670716</v>
       </c>
       <c r="O20">
-        <v>20.89829137199625</v>
+        <v>13.25573099662054</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.45120408642595</v>
+        <v>16.44015131577212</v>
       </c>
       <c r="C21">
-        <v>5.64948225816953</v>
+        <v>9.393447217685029</v>
       </c>
       <c r="D21">
-        <v>12.10953514510156</v>
+        <v>12.96055686394436</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.39832917790197</v>
+        <v>22.85760496381319</v>
       </c>
       <c r="G21">
-        <v>27.09231902455194</v>
+        <v>21.37491385324543</v>
       </c>
       <c r="H21">
-        <v>13.82859448939132</v>
+        <v>8.105414089234918</v>
       </c>
       <c r="I21">
-        <v>19.49545805482082</v>
+        <v>11.40547249799803</v>
       </c>
       <c r="J21">
-        <v>11.45847076689022</v>
+        <v>9.647189166693263</v>
       </c>
       <c r="K21">
-        <v>9.91609934837545</v>
+        <v>14.57731184730719</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.62863644549525</v>
+        <v>11.02807863229144</v>
       </c>
       <c r="O21">
-        <v>20.83482019332972</v>
+        <v>13.32696597673117</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.6965367448226</v>
+        <v>17.00773956842282</v>
       </c>
       <c r="C22">
-        <v>5.806353433678748</v>
+        <v>9.694309526365034</v>
       </c>
       <c r="D22">
-        <v>12.21364084261683</v>
+        <v>13.38198196349076</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.41459362710742</v>
+        <v>23.29888968362593</v>
       </c>
       <c r="G22">
-        <v>27.08234261404838</v>
+        <v>21.75596636626747</v>
       </c>
       <c r="H22">
-        <v>13.80170254099406</v>
+        <v>8.085471771210491</v>
       </c>
       <c r="I22">
-        <v>19.44080562508609</v>
+        <v>11.32199127121094</v>
       </c>
       <c r="J22">
-        <v>11.49105489011301</v>
+        <v>9.89351901031247</v>
       </c>
       <c r="K22">
-        <v>10.09388266096328</v>
+        <v>15.04647196613203</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.59359266305292</v>
+        <v>10.90602101060445</v>
       </c>
       <c r="O22">
-        <v>20.79696844480422</v>
+        <v>13.38613605266211</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.56626686019709</v>
+        <v>16.707094291208</v>
       </c>
       <c r="C23">
-        <v>5.723230224191737</v>
+        <v>9.534842219636733</v>
       </c>
       <c r="D23">
-        <v>12.15801104329625</v>
+        <v>13.15822972790986</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.40535225087404</v>
+        <v>23.06250766506071</v>
       </c>
       <c r="G23">
-        <v>27.08699767354739</v>
+        <v>21.55082783183726</v>
       </c>
       <c r="H23">
-        <v>13.81589596905039</v>
+        <v>8.095594379347261</v>
       </c>
       <c r="I23">
-        <v>19.46969936009344</v>
+        <v>11.36556149856808</v>
       </c>
       <c r="J23">
-        <v>11.47350052476083</v>
+        <v>9.762268953714051</v>
       </c>
       <c r="K23">
-        <v>9.999337598863121</v>
+        <v>14.79784507883212</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.61217699898174</v>
+        <v>10.97097378232368</v>
       </c>
       <c r="O23">
-        <v>20.81683802844968</v>
+        <v>13.35336983396202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.05856625832246</v>
+        <v>15.51804327144255</v>
       </c>
       <c r="C24">
-        <v>5.395277476404478</v>
+        <v>8.906526229734006</v>
       </c>
       <c r="D24">
-        <v>11.94895666974322</v>
+        <v>12.28533249944745</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.38268889878126</v>
+        <v>22.18657018592247</v>
       </c>
       <c r="G24">
-        <v>27.11932095313173</v>
+        <v>20.81271172766939</v>
       </c>
       <c r="H24">
-        <v>13.87315136837463</v>
+        <v>8.14508018303351</v>
       </c>
       <c r="I24">
-        <v>19.58517562743833</v>
+        <v>11.5515066646763</v>
       </c>
       <c r="J24">
-        <v>11.41064619992953</v>
+        <v>9.260616789659327</v>
       </c>
       <c r="K24">
-        <v>9.634070509347579</v>
+        <v>13.81725384553675</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.68518523189407</v>
+        <v>11.22121596139018</v>
       </c>
       <c r="O24">
-        <v>20.89938996494617</v>
+        <v>13.25477244411994</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.482922039260245</v>
+        <v>14.12688399090994</v>
       </c>
       <c r="C25">
-        <v>5.014107913848855</v>
+        <v>8.176865225281011</v>
       </c>
       <c r="D25">
-        <v>11.72803727228428</v>
+        <v>11.29132775743989</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.38468936844314</v>
+        <v>21.28582076861307</v>
       </c>
       <c r="G25">
-        <v>27.18544707354917</v>
+        <v>20.09956896723686</v>
       </c>
       <c r="H25">
-        <v>13.94238915897161</v>
+        <v>8.220446122493641</v>
       </c>
       <c r="I25">
-        <v>19.72263932681463</v>
+        <v>11.79248986111258</v>
       </c>
       <c r="J25">
-        <v>11.35081842408121</v>
+        <v>8.711862507226456</v>
       </c>
       <c r="K25">
-        <v>9.226770622371271</v>
+        <v>12.67642691662856</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.76956944014304</v>
+        <v>11.50042878274901</v>
       </c>
       <c r="O25">
-        <v>21.00397659358546</v>
+        <v>13.19927432584344</v>
       </c>
     </row>
   </sheetData>
